--- a/tugas-eksperimen-1/tugas eksperimen daa running time.xlsx
+++ b/tugas-eksperimen-1/tugas eksperimen daa running time.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8f8a5744d5c0e37/Documents/Downloads (OneDrive)/University/daa c/Week 08/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8f8a5744d5c0e37/Documents/Downloads (OneDrive)/University/daa c/Week 08/tugas-eksperimen-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{9CC750EC-B366-4E91-B9AB-69F701BF8B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79A81D18-112B-484F-9D33-D8694C2E4418}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="8_{9CC750EC-B366-4E91-B9AB-69F701BF8B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCCA38E8-7392-4C79-8C79-BD6625EF1E31}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E74EA6DC-5B74-4898-906A-B88D757B4C92}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E74EA6DC-5B74-4898-906A-B88D757B4C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Randomized Shell Sort</t>
   </si>
@@ -107,24 +107,41 @@
     <t>Big 3</t>
   </si>
   <si>
-    <t>Avg Small</t>
-  </si>
-  <si>
-    <t>Avg Mid</t>
-  </si>
-  <si>
-    <t>Avg Big</t>
-  </si>
-  <si>
-    <t>Times in miliseconds</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Time in miliseconds (ms)</t>
+  </si>
+  <si>
+    <t>Memory in bytes (B)</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -148,17 +165,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DA02C1-C168-4B6A-ABBF-EB279E075187}">
-  <dimension ref="B2:L23"/>
+  <dimension ref="B2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B25" sqref="B25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,6 +562,10 @@
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -502,6 +579,9 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -512,6 +592,9 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -521,6 +604,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -557,220 +645,676 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>1812300</v>
+        <v>1.1539999999999999</v>
       </c>
       <c r="E8">
-        <v>1787300</v>
+        <v>1.1487000000000001</v>
       </c>
       <c r="F8">
-        <v>1789700</v>
+        <v>1.1452</v>
       </c>
       <c r="G8">
-        <v>15443500</v>
+        <v>11.618600000000001</v>
       </c>
       <c r="H8">
-        <v>27977900</v>
+        <v>11.6616</v>
       </c>
       <c r="I8">
-        <v>15419100</v>
+        <v>18.2883</v>
       </c>
       <c r="J8">
-        <v>76561900</v>
+        <v>142.09569999999999</v>
       </c>
       <c r="K8">
-        <v>75690300</v>
+        <v>151.3707</v>
       </c>
       <c r="L8">
-        <v>60447700</v>
+        <v>141.32339999999999</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>1723800</v>
+      <c r="D9" s="3">
+        <v>3.0998000000000001</v>
       </c>
       <c r="E9">
-        <v>1740100</v>
+        <v>2.9598</v>
       </c>
       <c r="F9">
-        <v>1872000</v>
+        <v>2.8965999999999998</v>
       </c>
       <c r="G9">
-        <v>16425100</v>
+        <v>31.463799999999999</v>
       </c>
       <c r="H9">
-        <v>26373400</v>
+        <v>35.482999999999997</v>
       </c>
       <c r="I9">
-        <v>16452100</v>
+        <v>34.450299999999999</v>
       </c>
       <c r="J9">
-        <v>60210300</v>
+        <v>162.3152</v>
       </c>
       <c r="K9">
-        <v>60885100</v>
+        <v>178.47489999999999</v>
       </c>
       <c r="L9">
-        <v>64125600</v>
+        <v>168.80860000000001</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+      <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>1764600</v>
+        <v>1.4732000000000001</v>
       </c>
       <c r="E10">
-        <v>1741500</v>
+        <v>1.2662</v>
       </c>
       <c r="F10">
-        <v>1799600</v>
+        <v>1.1866000000000001</v>
       </c>
       <c r="G10">
-        <v>15901100</v>
+        <v>12.722</v>
       </c>
       <c r="H10">
-        <v>26072400</v>
+        <v>13.0433</v>
       </c>
       <c r="I10">
-        <v>15904700</v>
+        <v>15.127000000000001</v>
       </c>
       <c r="J10">
-        <v>71013100</v>
+        <v>142.2037</v>
       </c>
       <c r="K10">
-        <v>71686900</v>
+        <v>148.20310000000001</v>
       </c>
       <c r="L10">
-        <v>62657500</v>
+        <v>142.95670000000001</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
+      <c r="D11">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="F11">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.0552999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.9617</v>
+      </c>
+      <c r="I11">
+        <v>1.0102</v>
+      </c>
+      <c r="J11">
+        <v>3.4517000000000002</v>
+      </c>
+      <c r="K11">
+        <v>3.5869</v>
+      </c>
+      <c r="L11">
+        <v>3.7441</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="B12" s="4"/>
       <c r="C12" t="s">
         <v>7</v>
       </c>
+      <c r="D12">
+        <v>0.19869999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.25069999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.2712</v>
+      </c>
+      <c r="G12">
+        <v>1.2890999999999999</v>
+      </c>
+      <c r="H12">
+        <v>1.2710999999999999</v>
+      </c>
+      <c r="I12">
+        <v>1.2508999999999999</v>
+      </c>
+      <c r="J12">
+        <v>9.5701000000000001</v>
+      </c>
+      <c r="K12">
+        <v>9.7123000000000008</v>
+      </c>
+      <c r="L12">
+        <v>9.9254999999999995</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="B13" s="4"/>
       <c r="C13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+      <c r="D13">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="E13">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="F13">
+        <v>4.99E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.9375</v>
+      </c>
+      <c r="H13">
+        <v>0.62470000000000003</v>
+      </c>
+      <c r="I13">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="J13">
+        <v>3.42</v>
+      </c>
+      <c r="K13">
+        <v>3.1248</v>
+      </c>
+      <c r="L13">
+        <v>3.1160999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>3690120</v>
+      </c>
+      <c r="H17">
+        <v>3689872</v>
+      </c>
+      <c r="I17">
+        <v>3689872</v>
+      </c>
+      <c r="J17">
+        <v>-6590392</v>
+      </c>
+      <c r="K17">
+        <v>-6521464</v>
+      </c>
+      <c r="L17">
+        <v>-6388800</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>3189352</v>
+      </c>
+      <c r="H18">
+        <v>3189360</v>
+      </c>
+      <c r="I18">
+        <v>3189336</v>
+      </c>
+      <c r="J18">
+        <v>7455584</v>
+      </c>
+      <c r="K18">
+        <v>7384592</v>
+      </c>
+      <c r="L18">
+        <v>7562024</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>166080</v>
+      </c>
+      <c r="G19">
+        <v>3187328</v>
+      </c>
+      <c r="H19">
+        <v>3187568</v>
+      </c>
+      <c r="I19">
+        <v>3187568</v>
+      </c>
+      <c r="J19">
+        <v>30814864</v>
+      </c>
+      <c r="K19">
+        <v>30814864</v>
+      </c>
+      <c r="L19">
+        <v>30806992</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="F26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D18">
+      <c r="D27" s="5">
         <f>AVERAGE(D8:F8)</f>
-        <v>1796433.3333333333</v>
-      </c>
-      <c r="E18">
+        <v>1.1493</v>
+      </c>
+      <c r="E27" s="5">
+        <f>AVERAGE(D17:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
         <f>AVERAGE(G8:I8)</f>
-        <v>19613500</v>
-      </c>
-      <c r="F18">
+        <v>13.856166666666667</v>
+      </c>
+      <c r="G27" s="5">
+        <f>AVERAGE(G17:I17)</f>
+        <v>3689954.6666666665</v>
+      </c>
+      <c r="H27" s="5">
         <f>AVERAGE(J8:L8)</f>
-        <v>70899966.666666672</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" t="s">
+        <v>144.92993333333334</v>
+      </c>
+      <c r="I27" s="5">
+        <f>AVERAGE(J17:L17)</f>
+        <v>-6500218.666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D19">
-        <f t="shared" ref="D19:D20" si="0">AVERAGE(D9:F9)</f>
-        <v>1778633.3333333333</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ref="E19:E20" si="1">AVERAGE(G9:I9)</f>
-        <v>19750200</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ref="F19:F20" si="2">AVERAGE(J9:L9)</f>
-        <v>61740333.333333336</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" t="s">
+      <c r="D28" s="5">
+        <f>AVERAGE(D9:F9)</f>
+        <v>2.9853999999999998</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" ref="E28:E29" si="0">AVERAGE(D18:F18)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <f>AVERAGE(G9:I9)</f>
+        <v>33.799033333333334</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" ref="G28:G29" si="1">AVERAGE(G18:I18)</f>
+        <v>3189349.3333333335</v>
+      </c>
+      <c r="H28" s="5">
+        <f>AVERAGE(J9:L9)</f>
+        <v>169.86623333333333</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" ref="I28:I29" si="2">AVERAGE(J18:L18)</f>
+        <v>7467400</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="D29" s="5">
+        <f>AVERAGE(D10:F10)</f>
+        <v>1.3086666666666666</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
-        <v>1768566.6666666667</v>
-      </c>
-      <c r="E20">
+        <v>55360</v>
+      </c>
+      <c r="F29" s="5">
+        <f>AVERAGE(G10:I10)</f>
+        <v>13.630766666666666</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="1"/>
-        <v>19292733.333333332</v>
-      </c>
-      <c r="F20">
+        <v>3187488</v>
+      </c>
+      <c r="H29" s="5">
+        <f>AVERAGE(J10:L10)</f>
+        <v>144.4545</v>
+      </c>
+      <c r="I29" s="5">
         <f t="shared" si="2"/>
-        <v>68452500</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+        <v>30812240</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C30" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" t="s">
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" t="s">
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tugas-eksperimen-1/tugas eksperimen daa running time.xlsx
+++ b/tugas-eksperimen-1/tugas eksperimen daa running time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8f8a5744d5c0e37/Documents/Downloads (OneDrive)/University/daa c/Week 08/tugas-eksperimen-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="8_{9CC750EC-B366-4E91-B9AB-69F701BF8B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCCA38E8-7392-4C79-8C79-BD6625EF1E31}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="8_{9CC750EC-B366-4E91-B9AB-69F701BF8B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B14F128-A342-4BFB-87D4-31A2F991FDD0}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E74EA6DC-5B74-4898-906A-B88D757B4C92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E74EA6DC-5B74-4898-906A-B88D757B4C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,21 +217,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,7 +554,7 @@
   <dimension ref="B2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:I25"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
@@ -680,7 +680,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -713,7 +713,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -746,7 +746,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
@@ -781,7 +781,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -814,7 +814,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>9</v>
       </c>
@@ -890,7 +890,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="s">
@@ -925,7 +925,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -958,7 +958,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>9</v>
       </c>
@@ -991,7 +991,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
@@ -1026,7 +1026,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1059,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
+      <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>9</v>
       </c>
@@ -1092,227 +1092,236 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f>AVERAGE(D8:F8)</f>
         <v>1.1493</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f>AVERAGE(D17:F17)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <f>AVERAGE(G8:I8)</f>
         <v>13.856166666666667</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <f>AVERAGE(G17:I17)</f>
         <v>3689954.6666666665</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <f>AVERAGE(J8:L8)</f>
         <v>144.92993333333334</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <f>AVERAGE(J17:L17)</f>
         <v>-6500218.666666667</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f>AVERAGE(D9:F9)</f>
         <v>2.9853999999999998</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" ref="E28:E29" si="0">AVERAGE(D18:F18)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f>AVERAGE(G9:I9)</f>
         <v>33.799033333333334</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <f t="shared" ref="G28:G29" si="1">AVERAGE(G18:I18)</f>
         <v>3189349.3333333335</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <f>AVERAGE(J9:L9)</f>
         <v>169.86623333333333</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <f t="shared" ref="I28:I29" si="2">AVERAGE(J18:L18)</f>
         <v>7467400</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f>AVERAGE(D10:F10)</f>
         <v>1.3086666666666666</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>55360</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <f>AVERAGE(G10:I10)</f>
         <v>13.630766666666666</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <f t="shared" si="1"/>
         <v>3187488</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <f>AVERAGE(J10:L10)</f>
         <v>144.4545</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <f t="shared" si="2"/>
         <v>30812240</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
+      <c r="D30" s="4">
+        <f>AVERAGE(D11:F11)</f>
+        <v>6.3833333333333339E-2</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <f>AVERAGE(G11:I11)</f>
+        <v>1.0090666666666666</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f>AVERAGE(J11:L11)</f>
+        <v>3.5942333333333334</v>
+      </c>
+      <c r="I30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
+      <c r="D31" s="4">
+        <f>AVERAGE(D12:F12)</f>
+        <v>0.24019999999999997</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <f>AVERAGE(G12:I12)</f>
+        <v>1.2703666666666666</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <f>AVERAGE(J12:L12)</f>
+        <v>9.735966666666668</v>
+      </c>
+      <c r="I31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
+      <c r="D32" s="4">
+        <f>AVERAGE(D13:F13)</f>
+        <v>5.053333333333334E-2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <f>AVERAGE(G13:I13)</f>
+        <v>0.8323666666666667</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <f>AVERAGE(J13:L13)</f>
+        <v>3.2202999999999999</v>
+      </c>
+      <c r="I32" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
